--- a/doc/node-doc/part_tracking_light_valve_node.xlsx
+++ b/doc/node-doc/part_tracking_light_valve_node.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brianteam/Developer/light-valves/light-valve-node/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brianteam/Developer/light-valves/doc/node-doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F877A5C5-4970-C942-AE3E-25228D75BD37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40204F36-F9CC-C74F-9BC4-6BAFB2137857}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="21300" xr2:uid="{E64AAD0A-1366-0840-8175-817CEFEBBF59}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="21120" xr2:uid="{E64AAD0A-1366-0840-8175-817CEFEBBF59}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="41">
   <si>
     <t>Part</t>
   </si>
@@ -131,6 +131,33 @@
   </si>
   <si>
     <t>https://www.digikey.com/en/products/detail/smc-diode-solutions/BAT54/6022503</t>
+  </si>
+  <si>
+    <t>Square test point</t>
+  </si>
+  <si>
+    <t>RCWCTE</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/koa-speer-electronics-inc/RCWCTE/11476558</t>
+  </si>
+  <si>
+    <t>Schottky rectifier diode</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/onsemi/NCP718ASN500T1G/9169770</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/filter/pmic-voltage-regulators-linear/699?s=N4IgjCBcoCwdIDGUBmBDANgZwKYBoQB7KAbRAGYwAGcgdnJAPJlpkpAF0CAHAFyhABlXgCcAlgDsA5iAC%2BBAGwBOKKGSR02fEVIgYVJeUOce-SENGSZ8kACYArPdVJUmXAWKQy5ABxKqYCpcIHwCwuLScgT29M7qmu46XuBgCvYGjOBsPjSZYI5gPgwE%2BUq2LHkKYHC0efZKPva2lfY%2BCs0lPjD1PnltcFR9Pj6BeUowXTBj9LSDBLZUVLZgHXb55FRO84VUCrXztrbk7PO%2B9L3zMQowq7YKGw2Zyu0qBF22fpmH%2BUsmIWYWCLWEq7JwIeJubSeMgQYKhcwASQkvBwUhwIii4FotBU4NcWg8unKSjAtFhpjClkiNkCnzxGkhhOSgw4NgWaTi%2BMS0PA5Caq3ypOK4EcMAUlQmrzWjVuhTJXzlwsCYHIAoaRy%2BSyKmtsZR1Sn2diWSilC0oEHmNBWmRY1Vamvs%2BS%2BRz2X3S-jdBkNDgMpsd1suYFJzpJUwOOVuqtokb83qMGVOJIudjg9jDKeUtzFBq%2BtrmKYa3sa9y%2BxdNjVo4vmjRGpda%2BY%2BrVuNeFjZ8RfqWzsjUe1YUAS%2B7WYg-KFrs93l8z2VS%2B9Bus%2BY3voMVnjXTH18q0olC3KtSmW3CwPKtshu3w6YKrgx%2BY6e3FUvfIbJrFB9TwuY%2BSrFDgM6YNTHT9sQPbcz0oecmDSaMDygu8oI-NJayYWh%2BjyBZDG-FZqA5OEAXCKxMQAWmaelRAAVyhXQuyCWQbHFBAxAAEwEQjqDHeEQEyXgAE9uBwAQ0CwZBaKAA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>cheaper and smaller linear 5V reg</t>
+  </si>
+  <si>
+    <t>NCP718ASN500T1G</t>
   </si>
 </sst>
 </file>
@@ -497,17 +524,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAC60E9A-720B-FB49-94DF-2437FF26918A}">
-  <dimension ref="A1:L23"/>
+  <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="34.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="52.1640625" customWidth="1"/>
+    <col min="4" max="4" width="23.33203125" customWidth="1"/>
     <col min="9" max="9" width="25.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14" bestFit="1" customWidth="1"/>
   </cols>
@@ -525,6 +553,9 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -539,6 +570,9 @@
       <c r="D2" t="s">
         <v>6</v>
       </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -553,12 +587,27 @@
       <c r="D3" t="s">
         <v>6</v>
       </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
       <c r="H3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" t="s">
+        <v>34</v>
+      </c>
       <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
         <v>6</v>
       </c>
       <c r="I4" t="s">
@@ -575,7 +624,19 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" t="s">
+        <v>30</v>
+      </c>
       <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" t="s">
         <v>6</v>
       </c>
       <c r="I5" t="s">
@@ -592,6 +653,9 @@
       <c r="D6" t="s">
         <v>6</v>
       </c>
+      <c r="E6" t="s">
+        <v>38</v>
+      </c>
       <c r="I6" t="s">
         <v>22</v>
       </c>
@@ -606,7 +670,19 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" t="s">
+        <v>36</v>
+      </c>
       <c r="D7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" t="s">
         <v>6</v>
       </c>
       <c r="I7" t="s">
@@ -626,6 +702,9 @@
       <c r="D8" t="s">
         <v>6</v>
       </c>
+      <c r="E8" t="s">
+        <v>6</v>
+      </c>
       <c r="I8" t="s">
         <v>19</v>
       </c>
@@ -640,63 +719,30 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>24</v>
-      </c>
       <c r="D9" t="s">
         <v>6</v>
       </c>
       <c r="K9" s="1"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" t="s">
-        <v>2</v>
-      </c>
       <c r="D10" t="s">
         <v>6</v>
       </c>
       <c r="K10" s="1"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
-        <v>27</v>
-      </c>
       <c r="D11" t="s">
         <v>6</v>
       </c>
       <c r="K11" s="1"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" t="s">
-        <v>31</v>
-      </c>
       <c r="D12" t="s">
         <v>6</v>
       </c>
       <c r="K12" s="1"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="D13" t="s">
         <v>6</v>
       </c>
@@ -720,36 +766,75 @@
       </c>
       <c r="K16" s="1"/>
     </row>
-    <row r="17" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D17" t="s">
         <v>6</v>
       </c>
       <c r="K17" s="1"/>
     </row>
-    <row r="18" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D18" t="s">
         <v>6</v>
       </c>
       <c r="K18" s="1"/>
     </row>
-    <row r="19" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="K19" s="1"/>
     </row>
-    <row r="20" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="K20" s="1"/>
     </row>
-    <row r="21" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="K21" s="1"/>
     </row>
-    <row r="22" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
       <c r="K22" s="1"/>
     </row>
-    <row r="23" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>2</v>
+      </c>
       <c r="K23" s="1"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>30</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C13" r:id="rId1" xr:uid="{7428383A-EB32-4145-B844-4BE1C747D03B}"/>
+    <hyperlink ref="C26" r:id="rId1" xr:uid="{7428383A-EB32-4145-B844-4BE1C747D03B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/doc/node-doc/part_tracking_light_valve_node.xlsx
+++ b/doc/node-doc/part_tracking_light_valve_node.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brianteam/Developer/light-valves/doc/node-doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40204F36-F9CC-C74F-9BC4-6BAFB2137857}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10B5EA4B-5BED-9743-91B8-3B8DF645A8F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="21120" xr2:uid="{E64AAD0A-1366-0840-8175-817CEFEBBF59}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="45">
   <si>
     <t>Part</t>
   </si>
@@ -158,6 +158,18 @@
   </si>
   <si>
     <t>NCP718ASN500T1G</t>
+  </si>
+  <si>
+    <t>cheaper / smaller rect</t>
+  </si>
+  <si>
+    <t>BAV199S</t>
+  </si>
+  <si>
+    <t>https://www.digikey.de/en/products/filter/diodes-rectifiers-arrays/286?s=N4IgjCBcoGwJxVAYygMwIYBsDOBTANCAPZQDaIALAAxwDMdIh1cFtVIAuoQA4AuUIAMq8ATgEsAdgHMQAX0JwA7BGggUkDDgLEy4AExg4ADj2ce-SENGSZ8kAFpTq9aICu2kpHIBWRiAQcsnYwiCBiACYC9mBUEOYCfrwAnty4AujYKEFAA</t>
+  </si>
+  <si>
+    <t>https://www.digikey.de/en/products/detail/panjit-international-inc/BAV199S-R1-00001/14661140</t>
   </si>
 </sst>
 </file>
@@ -211,8 +223,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -228,7 +240,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -527,7 +539,7 @@
   <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -699,8 +711,17 @@
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" t="s">
+        <v>44</v>
+      </c>
       <c r="D8" t="s">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="E8" t="s">
         <v>6</v>
